--- a/classification/icd1011.xlsx
+++ b/classification/icd1011.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jator\Documents\Papers &amp; research\disease_outbreak_news\classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jator\Documents\GitHub\data\disease_outbreak_news\disease_outbreak_news\classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D90CB54-29AA-4E89-A6CF-ED1EDB6DF8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40925020-8367-4667-8BFC-9F04B962FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$90</definedName>
+    <definedName name="J12.3" localSheetId="0">Sheet1!$C$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="662">
   <si>
     <t>icd10c</t>
   </si>
@@ -1920,13 +1921,115 @@
   </si>
   <si>
     <t>XN275</t>
+  </si>
+  <si>
+    <t>Human metapneumovirus pneumonia</t>
+  </si>
+  <si>
+    <t>J123</t>
+  </si>
+  <si>
+    <t>CA4013</t>
+  </si>
+  <si>
+    <t>12CA40</t>
+  </si>
+  <si>
+    <t>12CA4004</t>
+  </si>
+  <si>
+    <t>12CA4013</t>
+  </si>
+  <si>
+    <t>Pneumonia due to Human metapneumovirus</t>
+  </si>
+  <si>
+    <t>A disease of the pulmonary system, caused by an infection with Human metapneumovirus. This disease is characterised by fever, myalgia, rhinorrhoea, dyspnoea, tachypnoea, or wheezing. This disease also presents with symptoms of pneumonia. Transmission is by direct or indirect contact, inhalation of infected respiratory sections, or through fomites. Confirmation is by identification of Human metapneumovirus in a nasopharyngeal, nose, or throat swab or blood sample.</t>
+  </si>
+  <si>
+    <t>Pneumonia due to parainfluenza virus</t>
+  </si>
+  <si>
+    <t>12CA4012</t>
+  </si>
+  <si>
+    <t>CA4012</t>
+  </si>
+  <si>
+    <t>A disease of the pulmonary system, caused by an infection with parainfluenza virus. This disease is characterised by fever, malaise, cough, or tachypnoea. Transmission is by inhalation of infected respiratory secretions, direct contact, or through fomites. Confirmation is by identification of the parainfluenza virus in respiratory secretions, detection of a significant rise in parainfluenza specific IgG antibodies in paired serum, or detection of parainfluenza specific IgM antibodies in a single serum sample.</t>
+  </si>
+  <si>
+    <t>Parainfluenza virus pneumonia</t>
+  </si>
+  <si>
+    <t>J122</t>
+  </si>
+  <si>
+    <t>Adenoviral pneumonia</t>
+  </si>
+  <si>
+    <t>J120</t>
+  </si>
+  <si>
+    <t>CA4010</t>
+  </si>
+  <si>
+    <t>12CA4010</t>
+  </si>
+  <si>
+    <t>Pneumonia due to Adenovirus</t>
+  </si>
+  <si>
+    <t>A disease of the pulmonary system, caused by an infection with adenovirus. This disease is characterised by fever, chills, or rigors. This disease may also present with chest pain, productive cough, dyspnoea, tachypnoea, hypoxia, and tachycardia. Transmission is by droplet transmission. Confirmation is by identification of adenovirus in a sputum sample.</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to rhinovirus</t>
+  </si>
+  <si>
+    <t>J20-J22</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>J206</t>
+  </si>
+  <si>
+    <t>Other acute lower respiratory infections</t>
+  </si>
+  <si>
+    <t>Acute bronchitis</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to Rhinovirus</t>
+  </si>
+  <si>
+    <t>A disease of the pulmonary system, caused by an infection with rhinovirus. This disease is characterised by cough, with or without production of sputum. Transmission is by inhalation of infected respiratory secretions, or direct contact.</t>
+  </si>
+  <si>
+    <t>CA421</t>
+  </si>
+  <si>
+    <t>12CA421</t>
+  </si>
+  <si>
+    <t>CA4011</t>
+  </si>
+  <si>
+    <t>12CA4011</t>
+  </si>
+  <si>
+    <t>Pneumonia due to Respiratory syncytial virus</t>
+  </si>
+  <si>
+    <t>A disease caused by an infection with respiratory syncytial virus. This disease is characterised by an inflammatory condition of the lung commonly affecting the alveoli (pneumonia), leading to coughing, sneezing, fever, or wheezing. This disease may be severe in premature babies and those with concurrent disease or immunosuppression. Transmission is by direct contact, droplet transmission, or indirect contact with infected respiratory secretions. Confirmation is by identification of respiratory syncytial virus, commonly through antigen detection or cell culture.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1961,6 +2064,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1982,7 +2091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1997,6 +2106,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2301,11 +2411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5259,7 +5369,7 @@
         <v>502</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>502</v>
+        <v>631</v>
       </c>
       <c r="J68" t="s">
         <v>503</v>
@@ -5392,7 +5502,7 @@
         <v>621</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="J71" t="s">
         <v>503</v>
@@ -6067,8 +6177,228 @@
         <v>608</v>
       </c>
     </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>488</v>
+      </c>
+      <c r="B87" t="s">
+        <v>497</v>
+      </c>
+      <c r="C87" t="s">
+        <v>629</v>
+      </c>
+      <c r="D87" t="s">
+        <v>491</v>
+      </c>
+      <c r="E87" t="s">
+        <v>499</v>
+      </c>
+      <c r="F87" t="s">
+        <v>628</v>
+      </c>
+      <c r="G87">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>630</v>
+      </c>
+      <c r="I87" t="s">
+        <v>633</v>
+      </c>
+      <c r="J87" t="s">
+        <v>503</v>
+      </c>
+      <c r="K87" t="s">
+        <v>504</v>
+      </c>
+      <c r="L87" t="s">
+        <v>505</v>
+      </c>
+      <c r="M87" t="s">
+        <v>634</v>
+      </c>
+      <c r="N87" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>488</v>
+      </c>
+      <c r="B88" t="s">
+        <v>497</v>
+      </c>
+      <c r="C88" t="s">
+        <v>641</v>
+      </c>
+      <c r="D88" t="s">
+        <v>491</v>
+      </c>
+      <c r="E88" t="s">
+        <v>499</v>
+      </c>
+      <c r="F88" t="s">
+        <v>640</v>
+      </c>
+      <c r="G88">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>638</v>
+      </c>
+      <c r="I88" t="s">
+        <v>637</v>
+      </c>
+      <c r="J88" t="s">
+        <v>503</v>
+      </c>
+      <c r="K88" t="s">
+        <v>504</v>
+      </c>
+      <c r="L88" t="s">
+        <v>505</v>
+      </c>
+      <c r="M88" t="s">
+        <v>636</v>
+      </c>
+      <c r="N88" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>488</v>
+      </c>
+      <c r="B89" t="s">
+        <v>497</v>
+      </c>
+      <c r="C89" t="s">
+        <v>643</v>
+      </c>
+      <c r="D89" t="s">
+        <v>491</v>
+      </c>
+      <c r="E89" t="s">
+        <v>499</v>
+      </c>
+      <c r="F89" t="s">
+        <v>642</v>
+      </c>
+      <c r="G89">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>644</v>
+      </c>
+      <c r="I89" t="s">
+        <v>645</v>
+      </c>
+      <c r="J89" t="s">
+        <v>503</v>
+      </c>
+      <c r="K89" t="s">
+        <v>504</v>
+      </c>
+      <c r="L89" t="s">
+        <v>505</v>
+      </c>
+      <c r="M89" t="s">
+        <v>646</v>
+      </c>
+      <c r="N89" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>649</v>
+      </c>
+      <c r="B90" t="s">
+        <v>650</v>
+      </c>
+      <c r="C90" t="s">
+        <v>651</v>
+      </c>
+      <c r="D90" t="s">
+        <v>652</v>
+      </c>
+      <c r="E90" t="s">
+        <v>653</v>
+      </c>
+      <c r="F90" t="s">
+        <v>648</v>
+      </c>
+      <c r="G90">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>656</v>
+      </c>
+      <c r="I90" t="s">
+        <v>657</v>
+      </c>
+      <c r="J90" t="s">
+        <v>503</v>
+      </c>
+      <c r="K90" t="s">
+        <v>504</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="M90" t="s">
+        <v>654</v>
+      </c>
+      <c r="N90" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>488</v>
+      </c>
+      <c r="B91" t="s">
+        <v>497</v>
+      </c>
+      <c r="C91" t="s">
+        <v>622</v>
+      </c>
+      <c r="D91" t="s">
+        <v>491</v>
+      </c>
+      <c r="E91" t="s">
+        <v>499</v>
+      </c>
+      <c r="F91" t="s">
+        <v>623</v>
+      </c>
+      <c r="G91">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>658</v>
+      </c>
+      <c r="I91" t="s">
+        <v>659</v>
+      </c>
+      <c r="J91" t="s">
+        <v>503</v>
+      </c>
+      <c r="K91" t="s">
+        <v>504</v>
+      </c>
+      <c r="L91" t="s">
+        <v>506</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="N91" t="s">
+        <v>661</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N74" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/classification/icd1011.xlsx
+++ b/classification/icd1011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jator\Documents\GitHub\data\disease_outbreak_news\disease_outbreak_news\classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40925020-8367-4667-8BFC-9F04B962FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A36540-9493-4E4B-8E59-83065BFBBEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$90</definedName>
-    <definedName name="J12.3" localSheetId="0">Sheet1!$C$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$89</definedName>
+    <definedName name="J12.3" localSheetId="0">Sheet1!$C$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="658">
   <si>
     <t>icd10c</t>
   </si>
@@ -1909,18 +1909,6 @@
   </si>
   <si>
     <t>Respiratory syncytial virus pneumonia</t>
-  </si>
-  <si>
-    <t>This is a virus that causes respiratory tract infections. It is a major cause of lower respiratory tract infections and hospital visits during infancy and childhood. This diagnosis is the cause of diseases classified to other chapters.</t>
-  </si>
-  <si>
-    <t>Human respiratory syncytial virus</t>
-  </si>
-  <si>
-    <t>N275</t>
-  </si>
-  <si>
-    <t>XN275</t>
   </si>
   <si>
     <t>Human metapneumovirus pneumonia</t>
@@ -2411,11 +2399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5369,7 +5357,7 @@
         <v>502</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J68" t="s">
         <v>503</v>
@@ -5392,43 +5380,44 @@
         <v>488</v>
       </c>
       <c r="B69" t="s">
-        <v>497</v>
+        <v>611</v>
       </c>
       <c r="C69" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D69" t="s">
         <v>491</v>
       </c>
       <c r="E69" t="s">
-        <v>499</v>
+        <v>613</v>
       </c>
       <c r="F69" t="s">
-        <v>623</v>
-      </c>
-      <c r="G69" t="s">
-        <v>467</v>
+        <v>614</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>626</v>
-      </c>
-      <c r="I69" t="s">
-        <v>627</v>
+        <v>616</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>617</v>
       </c>
       <c r="J69" t="s">
-        <v>470</v>
+        <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="L69" t="s">
-        <v>472</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>624</v>
+        <v>613</v>
+      </c>
+      <c r="M69" t="str">
+        <f>F69</f>
+        <v>Influenza with other manifestations, seasonal influenza virus identified</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -5436,88 +5425,87 @@
         <v>488</v>
       </c>
       <c r="B70" t="s">
-        <v>611</v>
+        <v>534</v>
       </c>
       <c r="C70" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="D70" t="s">
         <v>491</v>
       </c>
       <c r="E70" t="s">
-        <v>613</v>
+        <v>535</v>
       </c>
       <c r="F70" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>503</v>
       </c>
       <c r="K70" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="L70" t="s">
-        <v>613</v>
-      </c>
-      <c r="M70" t="str">
-        <f>F70</f>
-        <v>Influenza with other manifestations, seasonal influenza virus identified</v>
-      </c>
-      <c r="N70" s="4" t="s">
-        <v>615</v>
+        <v>505</v>
+      </c>
+      <c r="M70" t="s">
+        <v>618</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="C71" t="s">
-        <v>619</v>
+        <v>510</v>
       </c>
       <c r="D71" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="E71" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="F71" t="s">
-        <v>618</v>
-      </c>
-      <c r="G71">
-        <v>12</v>
+        <v>513</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>621</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>632</v>
+        <v>514</v>
+      </c>
+      <c r="I71" t="s">
+        <v>515</v>
       </c>
       <c r="J71" t="s">
-        <v>503</v>
+        <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>504</v>
+        <v>306</v>
       </c>
       <c r="L71" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="M71" t="s">
-        <v>618</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>620</v>
+        <v>516</v>
+      </c>
+      <c r="N71" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -5528,25 +5516,25 @@
         <v>509</v>
       </c>
       <c r="C72" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D72" t="s">
+        <v>519</v>
+      </c>
+      <c r="E72" t="s">
         <v>511</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>512</v>
       </c>
-      <c r="F72" t="s">
-        <v>513</v>
-      </c>
       <c r="G72" t="s">
         <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="I72" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="J72" t="s">
         <v>22</v>
@@ -5555,350 +5543,350 @@
         <v>306</v>
       </c>
       <c r="L72" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="M72" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="N72" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>508</v>
+        <v>374</v>
       </c>
       <c r="B73" t="s">
-        <v>509</v>
+        <v>382</v>
       </c>
       <c r="C73" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D73" t="s">
-        <v>519</v>
+        <v>376</v>
       </c>
       <c r="E73" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="F73" t="s">
-        <v>512</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
+        <v>524</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="I73" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>570</v>
       </c>
       <c r="K73" t="s">
-        <v>306</v>
+        <v>376</v>
       </c>
       <c r="L73" t="s">
-        <v>522</v>
+        <v>380</v>
       </c>
       <c r="M73" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N73" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>531</v>
       </c>
       <c r="B74" t="s">
-        <v>382</v>
+        <v>530</v>
       </c>
       <c r="C74" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>529</v>
       </c>
       <c r="E74" t="s">
-        <v>384</v>
+        <v>528</v>
       </c>
       <c r="F74" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="I74" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J74" t="s">
         <v>570</v>
       </c>
       <c r="K74" t="s">
-        <v>376</v>
+        <v>575</v>
       </c>
       <c r="L74" t="s">
-        <v>380</v>
+        <v>574</v>
       </c>
       <c r="M74" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
       <c r="N74" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C75" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D75" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
       <c r="E75" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F75" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="I75" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="J75" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="K75" t="s">
-        <v>575</v>
+        <v>504</v>
       </c>
       <c r="L75" t="s">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="M75" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="N75" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>488</v>
+        <v>540</v>
       </c>
       <c r="B76" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C76" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D76" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="E76" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F76" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G76">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="I76" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J76" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="K76" t="s">
-        <v>504</v>
+        <v>120</v>
       </c>
       <c r="L76" t="s">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="M76" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="N76" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>540</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>538</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D77" t="s">
-        <v>539</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>536</v>
+        <v>105</v>
       </c>
       <c r="F77" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>583</v>
+        <v>107</v>
       </c>
       <c r="I77" t="s">
-        <v>584</v>
+        <v>108</v>
       </c>
       <c r="J77" t="s">
-        <v>570</v>
+        <v>22</v>
       </c>
       <c r="K77" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="L77" t="s">
-        <v>582</v>
+        <v>105</v>
       </c>
       <c r="M77" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="N77" t="s">
-        <v>580</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>548</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>546</v>
       </c>
       <c r="C78" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D78" t="s">
-        <v>87</v>
+        <v>547</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>544</v>
       </c>
       <c r="F78" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>590</v>
+      </c>
+      <c r="I78" t="s">
+        <v>589</v>
+      </c>
+      <c r="J78" t="s">
+        <v>199</v>
+      </c>
+      <c r="K78" t="s">
+        <v>588</v>
+      </c>
+      <c r="L78" t="s">
+        <v>544</v>
+      </c>
+      <c r="M78" t="s">
+        <v>587</v>
+      </c>
+      <c r="N78" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="22.8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>434</v>
+      </c>
+      <c r="B79" t="s">
+        <v>552</v>
+      </c>
+      <c r="C79" t="s">
+        <v>551</v>
+      </c>
+      <c r="D79" t="s">
+        <v>437</v>
+      </c>
+      <c r="E79" t="s">
+        <v>549</v>
+      </c>
+      <c r="F79" t="s">
+        <v>550</v>
+      </c>
+      <c r="G79">
         <v>1</v>
       </c>
-      <c r="H78" t="s">
-        <v>107</v>
-      </c>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-      <c r="J78" t="s">
-        <v>22</v>
-      </c>
-      <c r="K78" t="s">
-        <v>87</v>
-      </c>
-      <c r="L78" t="s">
-        <v>105</v>
-      </c>
-      <c r="M78" t="s">
-        <v>541</v>
-      </c>
-      <c r="N78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>548</v>
-      </c>
-      <c r="B79" t="s">
-        <v>546</v>
-      </c>
-      <c r="C79" t="s">
-        <v>545</v>
-      </c>
-      <c r="D79" t="s">
-        <v>547</v>
-      </c>
-      <c r="E79" t="s">
-        <v>544</v>
-      </c>
-      <c r="F79" t="s">
-        <v>543</v>
-      </c>
-      <c r="G79">
-        <v>8</v>
-      </c>
       <c r="H79" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I79" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J79" t="s">
-        <v>199</v>
+        <v>570</v>
       </c>
       <c r="K79" t="s">
-        <v>588</v>
+        <v>441</v>
       </c>
       <c r="L79" t="s">
-        <v>544</v>
-      </c>
-      <c r="M79" t="s">
-        <v>587</v>
-      </c>
-      <c r="N79" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="22.8" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>434</v>
       </c>
       <c r="B80" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C80" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D80" t="s">
         <v>437</v>
       </c>
       <c r="E80" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F80" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="I80" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="J80" t="s">
         <v>570</v>
@@ -5909,55 +5897,55 @@
       <c r="L80" t="s">
         <v>442</v>
       </c>
-      <c r="M80" s="3" t="s">
-        <v>593</v>
+      <c r="M80" t="s">
+        <v>598</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>434</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C81" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D81" t="s">
-        <v>437</v>
+        <v>120</v>
       </c>
       <c r="E81" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F81" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
       <c r="I81" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="J81" t="s">
         <v>570</v>
       </c>
       <c r="K81" t="s">
-        <v>441</v>
-      </c>
-      <c r="L81" t="s">
-        <v>442</v>
+        <v>601</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="M81" t="s">
-        <v>598</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>595</v>
+        <v>557</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -5965,157 +5953,157 @@
         <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>559</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D82" t="s">
         <v>120</v>
       </c>
       <c r="E82" t="s">
-        <v>557</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="I82" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="J82" t="s">
         <v>570</v>
       </c>
       <c r="K82" t="s">
-        <v>601</v>
-      </c>
-      <c r="L82" s="5" t="s">
-        <v>602</v>
+        <v>120</v>
+      </c>
+      <c r="L82" t="s">
+        <v>605</v>
       </c>
       <c r="M82" t="s">
-        <v>557</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>603</v>
+        <v>33</v>
       </c>
       <c r="I83" t="s">
-        <v>604</v>
+        <v>45</v>
       </c>
       <c r="J83" t="s">
         <v>570</v>
       </c>
       <c r="K83" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="L83" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M83" t="s">
-        <v>560</v>
+        <v>562</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="F84" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="J84" t="s">
-        <v>570</v>
+        <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="L84" t="s">
-        <v>607</v>
+        <v>206</v>
       </c>
       <c r="M84" t="s">
-        <v>562</v>
-      </c>
-      <c r="N84" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C85" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D85" t="s">
         <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F85" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>208</v>
+        <v>609</v>
       </c>
       <c r="I85" t="s">
-        <v>209</v>
+        <v>610</v>
       </c>
       <c r="J85" t="s">
         <v>22</v>
@@ -6124,57 +6112,57 @@
         <v>186</v>
       </c>
       <c r="L85" t="s">
-        <v>206</v>
+        <v>566</v>
       </c>
       <c r="M85" t="s">
-        <v>564</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="19.2" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>211</v>
+        <v>497</v>
       </c>
       <c r="C86" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>491</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>499</v>
       </c>
       <c r="F86" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H86" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="I86" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>503</v>
       </c>
       <c r="K86" t="s">
-        <v>186</v>
+        <v>504</v>
       </c>
       <c r="L86" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="M86" t="s">
-        <v>566</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>608</v>
+        <v>630</v>
+      </c>
+      <c r="N86" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -6185,7 +6173,7 @@
         <v>497</v>
       </c>
       <c r="C87" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D87" t="s">
         <v>491</v>
@@ -6194,13 +6182,13 @@
         <v>499</v>
       </c>
       <c r="F87" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G87">
         <v>12</v>
       </c>
       <c r="H87" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="I87" t="s">
         <v>633</v>
@@ -6215,7 +6203,7 @@
         <v>505</v>
       </c>
       <c r="M87" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N87" t="s">
         <v>635</v>
@@ -6229,7 +6217,7 @@
         <v>497</v>
       </c>
       <c r="C88" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -6238,16 +6226,16 @@
         <v>499</v>
       </c>
       <c r="F88" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G88">
         <v>12</v>
       </c>
       <c r="H88" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I88" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="J88" t="s">
         <v>503</v>
@@ -6259,39 +6247,39 @@
         <v>505</v>
       </c>
       <c r="M88" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="N88" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>488</v>
+        <v>645</v>
       </c>
       <c r="B89" t="s">
-        <v>497</v>
+        <v>646</v>
       </c>
       <c r="C89" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D89" t="s">
-        <v>491</v>
+        <v>648</v>
       </c>
       <c r="E89" t="s">
-        <v>499</v>
+        <v>649</v>
       </c>
       <c r="F89" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G89">
         <v>12</v>
       </c>
       <c r="H89" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="I89" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="J89" t="s">
         <v>503</v>
@@ -6299,43 +6287,43 @@
       <c r="K89" t="s">
         <v>504</v>
       </c>
-      <c r="L89" t="s">
-        <v>505</v>
+      <c r="L89" s="8" t="s">
+        <v>649</v>
       </c>
       <c r="M89" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="N89" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>649</v>
+        <v>488</v>
       </c>
       <c r="B90" t="s">
-        <v>650</v>
+        <v>497</v>
       </c>
       <c r="C90" t="s">
-        <v>651</v>
+        <v>622</v>
       </c>
       <c r="D90" t="s">
-        <v>652</v>
+        <v>491</v>
       </c>
       <c r="E90" t="s">
-        <v>653</v>
+        <v>499</v>
       </c>
       <c r="F90" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="G90">
         <v>12</v>
       </c>
       <c r="H90" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I90" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J90" t="s">
         <v>503</v>
@@ -6343,58 +6331,14 @@
       <c r="K90" t="s">
         <v>504</v>
       </c>
-      <c r="L90" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="M90" t="s">
-        <v>654</v>
+      <c r="L90" t="s">
+        <v>506</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="N90" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>488</v>
-      </c>
-      <c r="B91" t="s">
-        <v>497</v>
-      </c>
-      <c r="C91" t="s">
-        <v>622</v>
-      </c>
-      <c r="D91" t="s">
-        <v>491</v>
-      </c>
-      <c r="E91" t="s">
-        <v>499</v>
-      </c>
-      <c r="F91" t="s">
-        <v>623</v>
-      </c>
-      <c r="G91">
-        <v>12</v>
-      </c>
-      <c r="H91" t="s">
-        <v>658</v>
-      </c>
-      <c r="I91" t="s">
-        <v>659</v>
-      </c>
-      <c r="J91" t="s">
-        <v>503</v>
-      </c>
-      <c r="K91" t="s">
-        <v>504</v>
-      </c>
-      <c r="L91" t="s">
-        <v>506</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="N91" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>

--- a/classification/icd1011.xlsx
+++ b/classification/icd1011.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jator\Documents\GitHub\data\disease_outbreak_news\disease_outbreak_news\classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A36540-9493-4E4B-8E59-83065BFBBEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12AFCA7-AD5D-454C-876E-D7C961E4296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$92</definedName>
     <definedName name="J12.3" localSheetId="0">Sheet1!$C$86</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="669">
   <si>
     <t>icd10c</t>
   </si>
@@ -2011,6 +2011,39 @@
   </si>
   <si>
     <t>A disease caused by an infection with respiratory syncytial virus. This disease is characterised by an inflammatory condition of the lung commonly affecting the alveoli (pneumonia), leading to coughing, sneezing, fever, or wheezing. This disease may be severe in premature babies and those with concurrent disease or immunosuppression. Transmission is by direct contact, droplet transmission, or indirect contact with infected respiratory secretions. Confirmation is by identification of respiratory syncytial virus, commonly through antigen detection or cell culture.</t>
+  </si>
+  <si>
+    <t>Other arenaviral haemorrhagic fevers</t>
+  </si>
+  <si>
+    <t>A968</t>
+  </si>
+  <si>
+    <t>Chapare virus</t>
+  </si>
+  <si>
+    <t>XN2WG</t>
+  </si>
+  <si>
+    <t>N2WG</t>
+  </si>
+  <si>
+    <t>Other specified viral haemorrhagic fevers</t>
+  </si>
+  <si>
+    <t>A988</t>
+  </si>
+  <si>
+    <t>Sudan virus disease</t>
+  </si>
+  <si>
+    <t>1D6001</t>
+  </si>
+  <si>
+    <t>1D6002</t>
+  </si>
+  <si>
+    <t>Ebola disease caused by Sudan virus.</t>
   </si>
 </sst>
 </file>
@@ -2399,11 +2432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4416,7 +4449,7 @@
         <v>329</v>
       </c>
       <c r="I46" t="s">
-        <v>330</v>
+        <v>666</v>
       </c>
       <c r="J46" t="s">
         <v>22</v>
@@ -6341,7 +6374,93 @@
         <v>657</v>
       </c>
     </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" t="s">
+        <v>659</v>
+      </c>
+      <c r="D91" t="s">
+        <v>243</v>
+      </c>
+      <c r="E91" t="s">
+        <v>302</v>
+      </c>
+      <c r="F91" t="s">
+        <v>658</v>
+      </c>
+      <c r="G91" t="s">
+        <v>467</v>
+      </c>
+      <c r="H91" t="s">
+        <v>662</v>
+      </c>
+      <c r="I91" t="s">
+        <v>661</v>
+      </c>
+      <c r="J91" t="s">
+        <v>470</v>
+      </c>
+      <c r="K91" t="s">
+        <v>471</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" t="s">
+        <v>664</v>
+      </c>
+      <c r="D92" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" t="s">
+        <v>322</v>
+      </c>
+      <c r="F92" t="s">
+        <v>663</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>329</v>
+      </c>
+      <c r="I92" t="s">
+        <v>667</v>
+      </c>
+      <c r="J92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" t="s">
+        <v>306</v>
+      </c>
+      <c r="L92" t="s">
+        <v>331</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/classification/icd1011.xlsx
+++ b/classification/icd1011.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jator\Documents\GitHub\data\disease_outbreak_news\disease_outbreak_news\classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12AFCA7-AD5D-454C-876E-D7C961E4296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0963D286-CE91-4B94-B5ED-BD441D31FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2435,8 +2435,8 @@
   <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="73" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
